--- a/Simulation/Predicted/Performance_2019-2022.xlsx
+++ b/Simulation/Predicted/Performance_2019-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chino\Documents\GitHub\Test\Simulation\Predicted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0391BE-3180-44E7-99F0-8A21D971405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA7EBF0-409E-4991-8F06-4D0293D3CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="2040" windowWidth="13140" windowHeight="12585" xr2:uid="{7AF1FED7-F7C9-4458-A8DB-86EC8CCDBCA6}"/>
+    <workbookView xWindow="14580" yWindow="2235" windowWidth="13140" windowHeight="12585" xr2:uid="{7AF1FED7-F7C9-4458-A8DB-86EC8CCDBCA6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>AHCh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Total</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -44,6 +40,10 @@
   </si>
   <si>
     <t>Accuracy(Not lose)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prediction Side AHCh</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -423,29 +423,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F32E21-CE12-47E2-A79E-265A2A2F064A}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -453,17 +453,17 @@
         <v>-1.75</v>
       </c>
       <c r="B2">
-        <v>27.739999999999885</v>
+        <v>31.524999999999899</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="E2" s="1">
         <f>(D2-C2)/D2</f>
-        <v>0.66101694915254239</v>
+        <v>0.65384615384615385</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -471,17 +471,17 @@
         <v>-1.5</v>
       </c>
       <c r="B3">
-        <v>15.699999999999637</v>
+        <v>30.759999999999529</v>
       </c>
       <c r="C3">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="D3">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="E3" s="1">
         <f>(D3-C3)/D3</f>
-        <v>0.61748633879781423</v>
+        <v>0.62093023255813951</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -489,17 +489,17 @@
         <v>-1.25</v>
       </c>
       <c r="B4">
-        <v>14.164999999999754</v>
+        <v>41.284999999999627</v>
       </c>
       <c r="C4">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="D4">
-        <v>488</v>
+        <v>607</v>
       </c>
       <c r="E4" s="1">
         <f>(D4-C4)/D4</f>
-        <v>0.58811475409836067</v>
+        <v>0.59967051070840194</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -507,17 +507,17 @@
         <v>-1</v>
       </c>
       <c r="B5">
-        <v>141.88999999999947</v>
+        <v>198.31999999999957</v>
       </c>
       <c r="C5">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D5">
-        <v>758</v>
+        <v>914</v>
       </c>
       <c r="E5" s="1">
         <f>(D5-C5)/D5</f>
-        <v>0.83377308707124009</v>
+        <v>0.85448577680525162</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,125 +525,197 @@
         <v>-0.75</v>
       </c>
       <c r="B6">
-        <v>95.884999999999451</v>
+        <v>250.66499999999968</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D6">
-        <v>1062</v>
+        <v>1197</v>
       </c>
       <c r="E6" s="1">
         <f>(D6-C6)/D6</f>
-        <v>0.71751412429378536</v>
+        <v>0.79949874686716793</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="B7">
-        <v>169.29999999999924</v>
+        <v>374.34999999999894</v>
       </c>
       <c r="C7">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="D7">
-        <v>733</v>
+        <v>1537</v>
       </c>
       <c r="E7" s="1">
         <f>(D7-C7)/D7</f>
-        <v>0.75579809004092768</v>
+        <v>0.77878985035783999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="B8">
-        <v>74.369999999999763</v>
+        <v>-35.52500000000083</v>
       </c>
       <c r="C8">
-        <v>118</v>
+        <v>629</v>
       </c>
       <c r="D8">
-        <v>481</v>
+        <v>2110</v>
       </c>
       <c r="E8" s="1">
         <f>(D8-C8)/D8</f>
-        <v>0.75467775467775466</v>
+        <v>0.70189573459715637</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>52.049999999999734</v>
+        <v>-143.80000000000095</v>
       </c>
       <c r="C9">
-        <v>61</v>
+        <v>635</v>
       </c>
       <c r="D9">
-        <v>347</v>
+        <v>1699</v>
       </c>
       <c r="E9" s="1">
         <f>(D9-C9)/D9</f>
-        <v>0.82420749279538907</v>
+        <v>0.62625073572689816</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="B10">
-        <v>17.774999999999824</v>
+        <v>-273.53000000000026</v>
       </c>
       <c r="C10">
-        <v>81</v>
+        <v>711</v>
       </c>
       <c r="D10">
-        <v>205</v>
+        <v>1442</v>
       </c>
       <c r="E10" s="1">
         <f>(D10-C10)/D10</f>
-        <v>0.60487804878048779</v>
+        <v>0.50693481276005548</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="B11">
-        <v>31.859999999999793</v>
+        <v>-228.29</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="D11">
-        <v>138</v>
+        <v>561</v>
       </c>
       <c r="E11" s="1">
         <f>(D11-C11)/D11</f>
-        <v>0.68840579710144922</v>
+        <v>0.43137254901960786</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="B12">
-        <v>16.719999999999974</v>
+        <v>-96.630000000000038</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="D12">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="E12" s="1">
         <f>(D12-C12)/D12</f>
-        <v>0.72727272727272729</v>
+        <v>0.40697674418604651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>-23.200000000000042</v>
+      </c>
+      <c r="C13">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>105</v>
+      </c>
+      <c r="E13" s="1">
+        <f>(D13-C13)/D13</f>
+        <v>0.64761904761904765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.25</v>
+      </c>
+      <c r="B14">
+        <v>-12.050000000000004</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1">
+        <f>(D14-C14)/D14</f>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.5</v>
+      </c>
+      <c r="B15">
+        <v>1.4999999999999871</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1">
+        <f>(D15-C15)/D15</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.75</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <f>(D16-C16)/D16</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
